--- a/MAILING LIST MAPPING.xlsx
+++ b/MAILING LIST MAPPING.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOHN CHALERA\Documents\Systems\CTS\mailerapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF5425C-BC05-476F-9751-BEF96AD5677C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C762E8C-539C-4480-A081-D70BA8252584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{883E4452-09F3-44FB-B1E1-2D43DD31CD57}"/>
   </bookViews>
   <sheets>
     <sheet name="MAILING LIST BY PRIORITY" sheetId="1" r:id="rId1"/>
-    <sheet name="MAILING LIST BY DISTRICT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,11 +36,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>Programme</t>
   </si>
   <si>
+    <t>victoria.huwa@wfp.org</t>
+  </si>
+  <si>
+    <t>wongani.mwandira@wfp.org</t>
+  </si>
+  <si>
+    <t>moses.jemitale@wfp.org</t>
+  </si>
+  <si>
+    <t>maximian.chisao@wfp.org</t>
+  </si>
+  <si>
+    <t>chikondi.mchokaliti@wfp.org</t>
+  </si>
+  <si>
+    <t>mphatso.chikhungu@wfp.org</t>
+  </si>
+  <si>
+    <t>chauncy.masamba@wfp.org</t>
+  </si>
+  <si>
     <t>District</t>
   </si>
   <si>
@@ -51,6 +71,93 @@
     <t>Phalombe</t>
   </si>
   <si>
+    <t>anthony.mbilizi@wfp.org; sandra.mukiwa@wfp.org</t>
+  </si>
+  <si>
+    <t>Zomba</t>
+  </si>
+  <si>
+    <t>sellina.tengatenga@wfp.org; sandra.mukiwa@wfp.org</t>
+  </si>
+  <si>
+    <t>Mulanje</t>
+  </si>
+  <si>
+    <t>barbara.longwe@wfp.org; sandra.mukiwa@wfp.org</t>
+  </si>
+  <si>
+    <t>Chikwawa</t>
+  </si>
+  <si>
+    <t>alinafe.kamdonyo@wfp.org</t>
+  </si>
+  <si>
+    <t>Nsanje</t>
+  </si>
+  <si>
+    <t>penjani.banda@wfp.org: alinafe.kamdonyo@wfp.org</t>
+  </si>
+  <si>
+    <t>Mangochi</t>
+  </si>
+  <si>
+    <t>lovemore.ali@wfp.org; maxwell.kamwendo@wfp.org</t>
+  </si>
+  <si>
+    <t>Machinga</t>
+  </si>
+  <si>
+    <t>joana.mtingiza@wfp.org; maxwell.kamwendo@wfp.org</t>
+  </si>
+  <si>
+    <t>Balaka</t>
+  </si>
+  <si>
+    <t>fanny.maluwa@wfp.org; maxwell.kamwendo@wfp.org</t>
+  </si>
+  <si>
+    <t>Rumphi</t>
+  </si>
+  <si>
+    <t>blessings.lungu@wfp.org</t>
+  </si>
+  <si>
+    <t>Nkhatabay</t>
+  </si>
+  <si>
+    <t>steven.khuleya@wfp.org; blessings.lungu@wfp.org</t>
+  </si>
+  <si>
+    <t>Mzimba North</t>
+  </si>
+  <si>
+    <t>ruben.manda@wfp.org; blessings.lungu@wfp.org</t>
+  </si>
+  <si>
+    <t>Mzimba South</t>
+  </si>
+  <si>
+    <t>light.issa@wfp.org; blessings.lungu@wfp.org</t>
+  </si>
+  <si>
+    <t>Kasungu</t>
+  </si>
+  <si>
+    <t>sella.chaphamtengo@wfp.org</t>
+  </si>
+  <si>
+    <t>Salima</t>
+  </si>
+  <si>
+    <t>verepi.madise@wfp.org</t>
+  </si>
+  <si>
+    <t>Dedza</t>
+  </si>
+  <si>
+    <t>thom.kamkodo@wfp.org</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -63,13 +170,28 @@
     <t>Undefined</t>
   </si>
   <si>
+    <t xml:space="preserve">Refugees </t>
+  </si>
+  <si>
     <t>Lean Season Response</t>
   </si>
   <si>
-    <t>chalera4@gmail.com</t>
-  </si>
-  <si>
-    <t>chalera4@gmail.com;guidochalera@outlook.com</t>
+    <t>Floods Response</t>
+  </si>
+  <si>
+    <t>School Meals</t>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t>FFA</t>
+  </si>
+  <si>
+    <t>john.chalera@wfp.org</t>
+  </si>
+  <si>
+    <t>maximian.chisawo@wfp.org</t>
   </si>
 </sst>
 </file>
@@ -122,11 +244,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -464,111 +583,593 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B2A695-A5F3-47DF-98EC-FE3AB66BCAE7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="2" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1E47109D-8A2E-4FC3-9BA4-E378A0ED4918}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2A9675CC-DF1D-4335-865D-F0747D2802A2}"/>
+    <hyperlink ref="D32" r:id="rId1" xr:uid="{47E590D9-AE76-4736-842D-9D358E7194A6}"/>
+    <hyperlink ref="D33" r:id="rId2" xr:uid="{04E7B78B-5236-4F19-8EEA-E7FA7ABBDA1F}"/>
+    <hyperlink ref="D34" r:id="rId3" xr:uid="{B2129596-2759-4FF5-B3D4-254B33691F77}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{256A4DB4-F6D5-498D-8164-CE43107D5CE4}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{92508AD1-9ABB-4004-892B-3674B00326A3}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{70030FF0-F38F-49B7-8E2E-4A535AD19D33}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{77D8EBAE-1F99-4DD5-82B7-9E26AC10EFF5}"/>
+    <hyperlink ref="D26" r:id="rId8" xr:uid="{23A92A45-21AE-4E18-B7E0-BC2B755A77EB}"/>
+    <hyperlink ref="D30" r:id="rId9" xr:uid="{0AEAD75C-3868-4429-ADA3-0C1E93CB58D3}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{AB31430E-55DF-44B2-8652-3D15E1193798}"/>
+    <hyperlink ref="D48" r:id="rId11" xr:uid="{F7EDCA5C-A685-47D2-A532-25BB3DA49AF0}"/>
+    <hyperlink ref="D47" r:id="rId12" xr:uid="{A5C4972C-AB28-4DAB-9FB2-60238BA5BE9A}"/>
+    <hyperlink ref="D46" r:id="rId13" display="light.issa@wfp.org" xr:uid="{499A04AA-62F0-4A54-BEB9-3BDA036DC3CB}"/>
+    <hyperlink ref="D45" r:id="rId14" display="ruben.manda@wfp.org" xr:uid="{CB1C2E35-539B-430B-95C8-45755C2DCDB9}"/>
+    <hyperlink ref="D44" r:id="rId15" display="steven.khuleya@wfp.org" xr:uid="{F004358C-54F1-444B-8398-C1F668146183}"/>
+    <hyperlink ref="D43" r:id="rId16" xr:uid="{41863E92-328C-4000-BE04-90066B19CB77}"/>
+    <hyperlink ref="D42" r:id="rId17" display="fanny.maluwa@wfp.org" xr:uid="{15E5D770-88F2-42E8-9DE5-BBD25C9E0AA8}"/>
+    <hyperlink ref="D40" r:id="rId18" display="lovemore.ali@wfp.org" xr:uid="{034CCA22-721C-446B-9661-2A4F9A5B9F71}"/>
+    <hyperlink ref="D39" r:id="rId19" display="penjani.banda@wfp.org" xr:uid="{FF189EF4-332E-4F88-BEF3-2FC3299BD7A6}"/>
+    <hyperlink ref="D38" r:id="rId20" xr:uid="{DA6E3D7B-3FBB-4984-9EC4-4E44139B129D}"/>
+    <hyperlink ref="D37" r:id="rId21" display="barbara.longwe@wfp.org" xr:uid="{53E93D8B-4400-44A5-88B6-CCB932C3B772}"/>
+    <hyperlink ref="D35" r:id="rId22" display="anthony.mbilizi@wfp.org" xr:uid="{DB5BBA6E-B531-48E6-BC1B-819F427E7B08}"/>
+    <hyperlink ref="D36" r:id="rId23" display="sellina.tengatenga@wfp.org" xr:uid="{330D3C9B-40A0-43B7-8C3F-A8C9BFABED56}"/>
+    <hyperlink ref="D41" r:id="rId24" display="joana.mtingiza@wfp.org" xr:uid="{6FFA9C8B-0453-445D-9F8B-89D04C9C923C}"/>
+    <hyperlink ref="D49" r:id="rId25" xr:uid="{B9E1840C-7D28-47CF-BF76-5BCAEFE993C4}"/>
+    <hyperlink ref="D3" r:id="rId26" xr:uid="{41973FFF-AB79-4A3D-B680-5447FA839CEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7575F7-BC6A-4485-84FF-7E0539E319F7}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F923872C-0EA9-49D0-BA95-CE9EAF6E33C1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>